--- a/biology/Médecine/Sanguin_(médecine)/Sanguin_(médecine).xlsx
+++ b/biology/Médecine/Sanguin_(médecine)/Sanguin_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sanguin_(m%C3%A9decine)</t>
+          <t>Sanguin_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sanguin (du latin sanguis, en français : sang, voir théorie des humeurs), en partant de la théorie des tempéraments des disciples d'Hippocrate, désigne dans le langage courant un individu serein, vif et inconscient.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sanguin_(m%C3%A9decine)</t>
+          <t>Sanguin_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De plus, on le décrit également comme plein d'imagination, loquace et optimiste. Par rapport aux traits négatifs, on lui attribue une incontinuité, un manque de scrupule et des excès fréquents.
 D'après Hans Eysenck, le tempérament sanguin est caractérisé par la combinaison de la stabilité émotionnelle avec l'extroversion.
